--- a/Excel/Impact_poste/Impact_poste_24_02_10.xlsx
+++ b/Excel/Impact_poste/Impact_poste_24_02_10.xlsx
@@ -1,37 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egretillat\Documents\Personnel\Code\envPython\Python_TTFL\Excel\Impact_poste\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CD65D4-8EF3-4066-8157-6E86582B6C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-12270" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>TTFL</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G-F</t>
+  </si>
+  <si>
+    <t>F-G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F-C</t>
+  </si>
+  <si>
+    <t>C-F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +193,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,934 +517,851 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TTFL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Minutes</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Moyenne</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
         <v>3149861</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>146563</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>21.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>22.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>20.6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>19.2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>19.7</v>
       </c>
-      <c r="I2" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J2">
         <v>22.7</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>20.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>22.8</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>21.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>20.2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>22.2</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>21.7</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>23.3</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>18</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>22.4</v>
       </c>
-      <c r="T2" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="U2">
         <v>21.5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>23.3</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>20.9</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>21.6</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>22.4</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>23.5</v>
       </c>
-      <c r="AB2" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AB2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AC2">
         <v>22</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>21.7</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>20.9</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>22</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>23.5</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>22.2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>G-F</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
         <v>601954</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>29503</v>
       </c>
-      <c r="D3" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E3">
         <v>25.3</v>
       </c>
-      <c r="F3" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G3">
         <v>20.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J3">
         <v>20.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>15.2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>21.7</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>15.7</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>20.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>24.1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>23</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>22.9</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>21.6</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>20.5</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>20.3</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>22.1</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>24.1</v>
       </c>
-      <c r="W3" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="W3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y3">
         <v>19.2</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>22.6</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>13.9</v>
       </c>
-      <c r="AB3" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AB3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AC3">
         <v>23.1</v>
       </c>
-      <c r="AD3" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AD3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AE3">
         <v>19.2</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>21.1</v>
       </c>
-      <c r="AH3" t="n">
-        <v>20.1</v>
+      <c r="AH3">
+        <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>F-G</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
         <v>426737</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>16426</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>26</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>32.6</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>23.7</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>26.3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>21.4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>22.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>23.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>28</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>24.8</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>22.7</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>27.7</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>30.8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>23.4</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>29.3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>27.7</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>27.7</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>26.7</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>22.9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>26</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>25</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>31.5</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>27.4</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>23.6</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>24.6</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>23</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>23.5</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>24.1</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>30.3</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>26.9</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>21.6</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>27.2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
         <v>2117160</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>101520</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20.9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>23.6</v>
       </c>
-      <c r="F5" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G5">
         <v>18.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I5">
         <v>22.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>21.8</v>
       </c>
-      <c r="K5" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L5">
         <v>21.9</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>19.3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>18</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>21.5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>20</v>
       </c>
-      <c r="Q5" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="R5">
         <v>18.2</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>21.4</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>20.5</v>
       </c>
-      <c r="U5" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="U5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V5">
         <v>25.7</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>20.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>19.3</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>20</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>23.9</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>22.9</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>18.8</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>21.3</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>24.5</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>20.5</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>23.4</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>23.7</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>22.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>F-C</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
         <v>718008</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>27221</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>26.4</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>26.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>25.6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>25.4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>23.8</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>27.1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>29.6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>27.2</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>24.7</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>26</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>24</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>26.2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>24.8</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>24.5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>26.7</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>23.6</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>21.4</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>26.2</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>24.7</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>23.9</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>32.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>27.6</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>22.4</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>26.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>28.3</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>29.2</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>25.4</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>27.8</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>26.4</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>31.4</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>28.9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C-F</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>420837</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>15362</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>27.4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>31.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>27.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>24.6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>34.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>23.1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>30</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>29.4</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>24.9</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>21.7</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>26</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>20.7</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>24.6</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>24.7</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>27.2</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>24.4</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>25.5</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>31.7</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>28.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>23.1</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>31.3</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>22.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>30.1</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>27.8</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>27.3</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>28.8</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>28.9</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>30.4</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>33.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>33.2</v>
+      <c r="AH7">
+        <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
         <v>812554</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>29323</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>27.7</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>31.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>26.1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>22.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>28</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>26.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>26.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>27.3</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>31</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>29.6</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>27.3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>27.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>22</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>30.3</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>22.9</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>28.4</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>22.8</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>26.3</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>27.5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>28.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>22.2</v>
       </c>
-      <c r="Y8" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="Y8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Z8">
         <v>28.1</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>30.1</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>28.5</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>29.1</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>27.2</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>28.3</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>33.6</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>26.8</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>29.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022B C2 – Usage restreint </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>